--- a/results/case2/sensitivity_case2_apos.xlsx
+++ b/results/case2/sensitivity_case2_apos.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.07989567246587403</v>
+        <v>0.08251639523413955</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.0722260553007282</v>
+        <v>-0.07459520073434943</v>
       </c>
     </row>
     <row r="4">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.764538078856458</v>
+        <v>2.724012690107163</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.3455672598570574</v>
+        <v>-0.3405015862633954</v>
       </c>
     </row>
     <row r="5">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.1743630335258417</v>
+        <v>0.1800824525006531</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1236294481010102</v>
+        <v>-0.1276847222637402</v>
       </c>
     </row>
     <row r="6">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C6" t="n">
         <v>-0.3942857142857144</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2771084337349401</v>
+        <v>0.27710843373494</v>
       </c>
       <c r="E6" t="n">
         <v>-0.3942857142857143</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2771084337349399</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C7" t="n">
         <v>-0.3942857142857144</v>
       </c>
       <c r="D7" t="n">
-        <v>3.295905218583114</v>
+        <v>3.263719971576895</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9357084775445101</v>
+        <v>-0.9370672235471995</v>
       </c>
     </row>
   </sheetData>

--- a/results/case2/sensitivity_case2_apos.xlsx
+++ b/results/case2/sensitivity_case2_apos.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.08251639523413955</v>
+        <v>0.08251639523413977</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-0.07459520073434943</v>
+        <v>-0.07459520073434932</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>0.1800824525006531</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1276847222637402</v>
+        <v>-0.1360260621759408</v>
       </c>
     </row>
     <row r="6">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2771084337349398</v>
+        <v>0.2771084337349397</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3942857142857144</v>
+        <v>-0.3942857142857145</v>
       </c>
       <c r="D6" t="n">
         <v>0.27710843373494</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2771084337349398</v>
+        <v>0.2771084337349397</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3942857142857144</v>
+        <v>-0.3942857142857145</v>
       </c>
       <c r="D7" t="n">
         <v>3.263719971576895</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9370672235471995</v>
+        <v>-0.9454085634593998</v>
       </c>
     </row>
   </sheetData>
